--- a/外資買賣20210720.xlsx
+++ b/外資買賣20210720.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtes4\Desktop\Stock Analysis\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="18" windowWidth="16098" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -516,12 +511,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -529,15 +524,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -612,23 +600,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -670,7 +650,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -702,10 +682,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -737,7 +716,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -913,25 +891,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.52734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.1171875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.3515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.1171875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.64453125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -957,7 +924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -981,7 +948,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1005,7 +972,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1029,7 +996,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1049,7 +1016,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1069,7 +1036,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1089,7 +1056,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1109,7 +1076,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -1129,7 +1096,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1149,7 +1116,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1169,7 +1136,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -1189,7 +1156,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1209,7 +1176,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1229,7 +1196,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1249,7 +1216,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -1269,7 +1236,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -1289,7 +1256,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
@@ -1309,7 +1276,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
@@ -1329,7 +1296,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
@@ -1349,7 +1316,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
@@ -1369,7 +1336,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
         <v>28</v>
       </c>
@@ -1389,7 +1356,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
@@ -1409,7 +1376,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
         <v>30</v>
       </c>
@@ -1429,7 +1396,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
@@ -1449,7 +1416,7 @@
       <c r="G25" s="6"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
         <v>32</v>
       </c>
@@ -1469,7 +1436,7 @@
       <c r="G26" s="6"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
         <v>33</v>
       </c>
@@ -1489,7 +1456,7 @@
       <c r="G27" s="6"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8">
       <c r="A28" s="2" t="s">
         <v>34</v>
       </c>
@@ -1509,7 +1476,7 @@
       <c r="G28" s="6"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
         <v>35</v>
       </c>
@@ -1529,7 +1496,7 @@
       <c r="G29" s="6"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8">
       <c r="A30" s="2" t="s">
         <v>36</v>
       </c>
@@ -1549,7 +1516,7 @@
       <c r="G30" s="6"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
         <v>37</v>
       </c>
@@ -1570,8 +1537,6 @@
       <c r="H31" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>